--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
@@ -114,9 +114,6 @@
     <t>交易金额</t>
   </si>
   <si>
-    <t>交易金额转人民币</t>
-  </si>
-  <si>
     <t>对方金融机构网点名称</t>
   </si>
   <si>
@@ -221,6 +218,10 @@
   </si>
   <si>
     <t>调查阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额转人民币（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +681,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>0</v>
@@ -701,13 +702,13 @@
         <v>3</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>14</v>
@@ -728,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>13</v>
@@ -737,31 +738,31 @@
         <v>8</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="AC1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -818,9 +819,9 @@
     <col min="23" max="23" width="25.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.375" customWidth="1"/>
+    <col min="27" max="27" width="11.125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="22.375" style="6" customWidth="1"/>
     <col min="29" max="29" width="21.75" customWidth="1"/>
     <col min="30" max="30" width="26.5" customWidth="1"/>
     <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
@@ -838,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -859,28 +860,28 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>18</v>
@@ -898,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
@@ -913,28 +914,28 @@
         <v>26</v>
       </c>
       <c r="AB1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
@@ -258,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -325,11 +331,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,24 +654,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="30" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="12" customWidth="1"/>
-    <col min="13" max="13" width="17" style="12" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="13" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="11" customWidth="1"/>
     <col min="19" max="19" width="16" style="8" customWidth="1"/>
     <col min="20" max="20" width="15.625" style="8" customWidth="1"/>
     <col min="21" max="21" width="17" style="8" customWidth="1"/>
@@ -669,63 +683,63 @@
     <col min="27" max="27" width="39" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="29.875" style="8" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" style="8" customWidth="1"/>
-    <col min="30" max="30" width="38.875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="38.875" style="8" customWidth="1"/>
     <col min="31" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -761,7 +775,7 @@
       <c r="AC1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="15" t="s">
         <v>53</v>
       </c>
     </row>

--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>客户号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,156 +72,160 @@
     <t>直线经理姓名</t>
   </si>
   <si>
+    <t>(初步调查)上报的可疑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务标识</t>
+  </si>
+  <si>
+    <t>交易发生日期</t>
+  </si>
+  <si>
+    <t>交易发生地</t>
+  </si>
+  <si>
+    <t>收付款方匹配号码类型</t>
+  </si>
+  <si>
+    <t>交易方式</t>
+  </si>
+  <si>
+    <t>非柜台交易方式</t>
+  </si>
+  <si>
+    <t>资金收付标志</t>
+  </si>
+  <si>
+    <t>资金用途</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>对方金融机构网点名称</t>
+  </si>
+  <si>
+    <t>对方金融机构网点行政代码</t>
+  </si>
+  <si>
+    <t>交易对手名称</t>
+  </si>
+  <si>
+    <t>交易对手身份证件号码</t>
+  </si>
+  <si>
+    <t>交易对手账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易代办人姓名   </t>
+  </si>
+  <si>
+    <t>代办人身份证件/证明文件号码</t>
+  </si>
+  <si>
+    <t>反馈结果(从FCTM或者GB/GF指定部门)</t>
+  </si>
+  <si>
+    <t>是否判定可疑(及由哪方判定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工所在部门</t>
+  </si>
+  <si>
+    <t>员工职位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工所在部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工职位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非柜台交易方式设备代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户账号类型</t>
+  </si>
+  <si>
+    <t>客户账号</t>
+  </si>
+  <si>
+    <t>银行卡类型</t>
+  </si>
+  <si>
+    <t>银行卡号码</t>
+  </si>
+  <si>
+    <t>上报案件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈案件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报日期(YYYYMMDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到反馈时间(YYYYMMDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额转人民币（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(初步调查)上报的可疑类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务标识</t>
-  </si>
-  <si>
-    <t>交易发生日期</t>
-  </si>
-  <si>
-    <t>交易发生地</t>
-  </si>
-  <si>
-    <t>收付款方匹配号码类型</t>
-  </si>
-  <si>
-    <t>交易方式</t>
-  </si>
-  <si>
-    <t>非柜台交易方式</t>
-  </si>
-  <si>
-    <t>资金收付标志</t>
-  </si>
-  <si>
-    <t>资金用途</t>
-  </si>
-  <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>交易金额</t>
-  </si>
-  <si>
-    <t>对方金融机构网点名称</t>
-  </si>
-  <si>
-    <t>对方金融机构网点行政代码</t>
-  </si>
-  <si>
-    <t>交易对手名称</t>
-  </si>
-  <si>
-    <t>交易对手身份证件号码</t>
-  </si>
-  <si>
-    <t>交易对手账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">交易代办人姓名   </t>
-  </si>
-  <si>
-    <t>代办人身份证件/证明文件号码</t>
-  </si>
-  <si>
-    <t>反馈结果(从FCTM或者GB/GF指定部门)</t>
-  </si>
-  <si>
-    <t>是否判定可疑(及由哪方判定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工所在部门</t>
-  </si>
-  <si>
-    <t>员工职位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工所在部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工职位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非柜台交易方式设备代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户账号类型</t>
-  </si>
-  <si>
-    <t>客户账号</t>
-  </si>
-  <si>
-    <t>银行卡类型</t>
-  </si>
-  <si>
-    <t>银行卡号码</t>
-  </si>
-  <si>
-    <t>上报案件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈案件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质检意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上报日期(YYYYMMDD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到反馈时间(YYYYMMDD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额转人民币（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,27 +319,27 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -648,152 +646,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="8" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="13" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="11" customWidth="1"/>
-    <col min="19" max="19" width="16" style="8" customWidth="1"/>
-    <col min="20" max="20" width="15.625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="17" style="8" customWidth="1"/>
-    <col min="22" max="22" width="19.625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="21.875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="27.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.75" style="8" customWidth="1"/>
-    <col min="26" max="26" width="27.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" style="8" customWidth="1"/>
-    <col min="30" max="30" width="38.875" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="13.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16" style="9" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="17" style="9" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="21.875" style="9" customWidth="1"/>
+    <col min="23" max="23" width="27.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.75" style="9" customWidth="1"/>
+    <col min="25" max="25" width="27.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="9" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="9" customWidth="1"/>
+    <col min="31" max="31" width="17.25" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>53</v>
+      <c r="AE1" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="S1:AC1048576" name="区域2"/>
+    <protectedRange sqref="A1:A1048576 C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576 K1:K1048576 L1:L1048576 N1:N1048576 O1:O1048576 R1:R1048576 S1:S1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576 AA1:AA1048576 AE1:AE1048576 AD1:AD1048576 AB1:AB1048576" name="区域1"/>
   </protectedRanges>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
       <formula1>"00-OPS结案,01-已上报FCTM,02-FCTM结案,03-已上报GB/GF 指定部门,04-GB/GF 指定部门结案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576 Z2:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576 Y2:Y1048576">
       <formula1>"00-FCR,01-Misconduct,02-SAFE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576">
       <formula1>"00-Y:FCTM,01-Y:GB/GF 指定部门,02-N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -850,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -874,82 +876,82 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
+++ b/员工交易监测_20200507/20200518/AML/WebContent/WEB-INF/classes/AStaffAcctTrad.xlsx
@@ -107,9 +107,6 @@
     <t>币种</t>
   </si>
   <si>
-    <t>交易金额</t>
-  </si>
-  <si>
     <t>对方金融机构网点名称</t>
   </si>
   <si>
@@ -217,15 +214,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>审核人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>交易金额转人民币（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录状态</t>
+    <t>交易金额（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,9 +234,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +303,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -342,6 +327,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,137 +641,136 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16" style="9" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="17" style="9" customWidth="1"/>
-    <col min="21" max="21" width="19.625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="21.875" style="9" customWidth="1"/>
-    <col min="23" max="23" width="27.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.75" style="9" customWidth="1"/>
-    <col min="25" max="25" width="27.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="39" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="9" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="8" customWidth="1"/>
-    <col min="30" max="30" width="16.5" style="9" customWidth="1"/>
-    <col min="31" max="31" width="17.25" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.75" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16" style="4" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17" style="4" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="21.875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="27.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.75" style="4" customWidth="1"/>
+    <col min="25" max="25" width="27.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="4" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="4" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="4" customWidth="1"/>
+    <col min="31" max="31" width="17.25" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A1:A1048576 C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576 K1:K1048576 L1:L1048576 N1:N1048576 O1:O1048576 R1:R1048576 S1:S1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576 AA1:AA1048576 AE1:AE1048576 AD1:AD1048576 AB1:AB1048576" name="区域1"/>
   </protectedRanges>
@@ -834,10 +822,10 @@
     <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" customWidth="1"/>
-    <col min="27" max="27" width="11.125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="22.375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12.625" customWidth="1"/>
+    <col min="26" max="26" width="13.75" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="22.375" style="3" customWidth="1"/>
     <col min="29" max="29" width="21.75" customWidth="1"/>
     <col min="30" max="30" width="26.5" customWidth="1"/>
     <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
@@ -855,10 +843,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -876,28 +864,28 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
@@ -915,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
@@ -926,32 +914,32 @@
       <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
